--- a/Self Assessment.xlsx
+++ b/Self Assessment.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Self Assessment" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Self Assessment'!$A$1:$D$16</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Requirements engineering</t>
   </si>
@@ -108,9 +111,6 @@
     <t>518H0502 - Ta Trung Hieu</t>
   </si>
   <si>
-    <t>518H0000 - Tran Thi Hong Tuyet Ngan</t>
-  </si>
-  <si>
     <t>518H0470 - Nguyen Thi Lan Anh</t>
   </si>
   <si>
@@ -118,6 +118,41 @@
   </si>
   <si>
     <t>Topic: 09. Hotel Management</t>
+  </si>
+  <si>
+    <t>518H0226 - Tran Thi Hong Tuyet Ngan</t>
+  </si>
+  <si>
+    <t>Nội dung rõ ràng, đầy đủ.</t>
+  </si>
+  <si>
+    <t>Vẽ đúng, đầy đủ các use case và các mối quan hệ trong use case.
+Có lập bảng đặc tả use case nhưng còn thiếu, sai sót.</t>
+  </si>
+  <si>
+    <t>Có vẽ class diagrams nhưng còn thiếu hoặc sai sót (không nghiêm trọng).</t>
+  </si>
+  <si>
+    <t>Vẽ đúng các activity diagrams.
+Có vẽ sequence diagrams nhưng còn thiếu hoặc sai</t>
+  </si>
+  <si>
+    <t>Thiết kế đúng đủ ERD, Relational Data Model và mô tả đầy đủ các bảng trong CSDL</t>
+  </si>
+  <si>
+    <t>Xây dựng ứng dụng hoạt động ổn định, đầy đủ chức năng</t>
+  </si>
+  <si>
+    <t>Thực hiện coding convention nhưng không đầy đủ</t>
+  </si>
+  <si>
+    <t>Có viết test case hoặc unit test nhưng còn nhiều thiếu sót.</t>
+  </si>
+  <si>
+    <t>Có sử dụng SVN/GIT nhưng mang tính đối phó, không thường xuyên</t>
+  </si>
+  <si>
+    <t>Báo cáo trình bày gọn gàng, chặt chẽ. Trả lời vấn đáp tốt.</t>
   </si>
 </sst>
 </file>
@@ -174,7 +209,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +222,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -339,71 +368,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,180 +720,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="35.5546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="77" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>5</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>6</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="22">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>7</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>8</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>9</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>10</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B16" s="6"/>
+      <c r="C16" s="19">
+        <f>SUM(C6:C15)</f>
         <v>8</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>9</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="3">
-        <f>SUM(C6:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
